--- a/timeline.xlsx
+++ b/timeline.xlsx
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve">project number</t>
   </si>
   <si>
-    <t xml:space="preserve">Name</t>
+    <t xml:space="preserve">Nom du projet</t>
   </si>
   <si>
     <t xml:space="preserve">start date</t>
@@ -40,25 +40,50 @@
     <t xml:space="preserve">end date</t>
   </si>
   <si>
+    <t xml:space="preserve">Projet 1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Démarrez votre formation de Business Intelligence Analyst</t>
   </si>
   <si>
+    <t xml:space="preserve">Projet 2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Visualisez des données avec Excel</t>
   </si>
   <si>
+    <t xml:space="preserve">Projet 3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Requêtez une base de données avec SQL</t>
   </si>
   <si>
+    <t xml:space="preserve">Projet 4</t>
+  </si>
+  <si>
     <t xml:space="preserve">Collectez des données en respectant les normes RGPD</t>
   </si>
   <si>
+    <t xml:space="preserve">Projet 5</t>
+  </si>
+  <si>
     <t xml:space="preserve">Interrogez une base de données avec SQL pour suivre la satisfaction client</t>
   </si>
   <si>
+    <t xml:space="preserve"> Projet 6</t>
+  </si>
+  <si>
     <t xml:space="preserve">Optimisez la gestion du stock d’une boutique en nettoyant ses données</t>
   </si>
   <si>
-    <t xml:space="preserve">Créez un tableau de bord dynamique avec Power BI pour visualiser l’avancement de projets</t>
+    <t xml:space="preserve">Projet 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Créez un tableau de bord dynamique avec Power BI pour visualiser l’avancement de projets
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Projet 8</t>
   </si>
   <si>
     <t xml:space="preserve">Analysez l’évolution des prix de l’immobilier avec Python</t>
@@ -74,7 +99,7 @@
     <numFmt numFmtId="166" formatCode="DD/MM/YY"/>
     <numFmt numFmtId="167" formatCode="D/M/YYYY"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -104,26 +129,13 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF271A38"/>
-      <name val="Inter"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -177,12 +189,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -194,66 +206,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF271A38"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -264,13 +216,15 @@
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="56.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="92.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
   </cols>
@@ -296,11 +250,11 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>45173</v>
@@ -316,14 +270,14 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>7</v>
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>45205</v>
+        <v>45193</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>20</v>
@@ -336,14 +290,14 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="5" t="n">
-        <v>45245</v>
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>45239</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>40</v>
@@ -356,14 +310,14 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>9</v>
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>45261</v>
+        <v>45254</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>25</v>
@@ -376,14 +330,14 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>10</v>
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>45323</v>
+        <v>45311</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>40</v>
@@ -396,14 +350,14 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>11</v>
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>45356</v>
+        <v>45347</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>50</v>
@@ -415,15 +369,15 @@
         <v>45383</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>12</v>
+    <row r="8" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>45385</v>
+        <v>45376</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>40</v>
@@ -436,14 +390,14 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>13</v>
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>45441</v>
+        <v>45432</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>55</v>
